--- a/data/trans_dic/P1803_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1803_2016_2023-Edad-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.05033280808682154</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05344414295901903</v>
+        <v>0.05344414295901902</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03232407613252318</v>
+        <v>0.03369325868303214</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02745460969647691</v>
+        <v>0.02810066861124253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02935456020593731</v>
+        <v>0.02903024824065486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02409020070611178</v>
+        <v>0.02450179997089178</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03580612643784909</v>
+        <v>0.03659536875719272</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03373034124786315</v>
+        <v>0.0329582579211287</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07853331658071623</v>
+        <v>0.08220135917199611</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1066071080262047</v>
+        <v>0.1047265729269368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07324129448954614</v>
+        <v>0.07256087755721659</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09236891938591824</v>
+        <v>0.09341519984074154</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06634633191998278</v>
+        <v>0.06883460272148831</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08409050657191952</v>
+        <v>0.08337759223716697</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.0712239641187333</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09706849140784694</v>
+        <v>0.09706849140784696</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05780877463930172</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03033815046126173</v>
+        <v>0.02970997997777834</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04899718334099354</v>
+        <v>0.04572120007124787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05035599194575536</v>
+        <v>0.05318710129349695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07104835129025062</v>
+        <v>0.06966250527280735</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04445859036869685</v>
+        <v>0.04444894667141976</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06513981608481784</v>
+        <v>0.06681669183795109</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06384305025201749</v>
+        <v>0.06598259995170837</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1092113272367395</v>
+        <v>0.109170391655949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09357118942395698</v>
+        <v>0.09823298533965653</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1267744825879847</v>
+        <v>0.1297983585241584</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07335446324387301</v>
+        <v>0.07264111455882097</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1079657696704721</v>
+        <v>0.1085773046997282</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.04502016479417047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09986109546127826</v>
+        <v>0.09986109546127825</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05254684873325241</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04206071996386281</v>
+        <v>0.04201117584558957</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08707480495497003</v>
+        <v>0.08732506653276148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03083803427482057</v>
+        <v>0.03094124941782889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08085497946106959</v>
+        <v>0.08120155283192711</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03985023078693191</v>
+        <v>0.04054813775494728</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09154437571878506</v>
+        <v>0.09067194250132625</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08103298401424837</v>
+        <v>0.08076188576532596</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1412106546481745</v>
+        <v>0.1399207575982335</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06655435798867636</v>
+        <v>0.06578757904107413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1221781992828926</v>
+        <v>0.1201878317333898</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0655856532276438</v>
+        <v>0.0670262452710414</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1243255064621885</v>
+        <v>0.124100620968943</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.05026584970666361</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1086253967285613</v>
+        <v>0.1086253967285614</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03243770691000806</v>
+        <v>0.03238373453716986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08224169693534603</v>
+        <v>0.08302134795747536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.038170780772306</v>
+        <v>0.03894507722890202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09518846137319006</v>
+        <v>0.09747734680233032</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03796854228838019</v>
+        <v>0.0381622538915001</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09526678926418423</v>
+        <v>0.09436294901336022</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07220924794612732</v>
+        <v>0.06939113912900957</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1292728125036479</v>
+        <v>0.1311512575568151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07436284830610501</v>
+        <v>0.07363054061002043</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1328131016186714</v>
+        <v>0.1336029490086905</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06562759805002084</v>
+        <v>0.06469395058421812</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1256813116228756</v>
+        <v>0.1254117560738064</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02903483543504761</v>
+        <v>0.02874692546784499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05755392953450769</v>
+        <v>0.05755416269528194</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04294804093738451</v>
+        <v>0.0418208669877689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1109577213929594</v>
+        <v>0.1102012913869994</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04044344586765413</v>
+        <v>0.04083257029010326</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08813591450567157</v>
+        <v>0.0894295089265013</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06813262627386465</v>
+        <v>0.06925315434343034</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09698960762517796</v>
+        <v>0.09855670026083942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09362674770765085</v>
+        <v>0.0927552757584978</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1535458913876841</v>
+        <v>0.1499685673138099</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07149770804153996</v>
+        <v>0.07250771476524712</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1183195701995055</v>
+        <v>0.1182093626281016</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008571082152304392</v>
+        <v>0.00887542233561696</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04589707790947829</v>
+        <v>0.0447938218797965</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04368274741143124</v>
+        <v>0.04601826032108509</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08794230865281037</v>
+        <v>0.08799481529429691</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03298583184530006</v>
+        <v>0.03102940024195443</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07185891769054975</v>
+        <v>0.07286103505176786</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03888382607258625</v>
+        <v>0.03974986174929766</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08899858673732261</v>
+        <v>0.08562253478296721</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.100492512296468</v>
+        <v>0.1042488203848896</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1305426516098556</v>
+        <v>0.1311966638710489</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06698516093341111</v>
+        <v>0.06559445703948122</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1023624592188812</v>
+        <v>0.1021451544618279</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01273125058425965</v>
+        <v>0.0126938772306578</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0178748418886644</v>
+        <v>0.01746840382346863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01908848969138324</v>
+        <v>0.02124144515655876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05057028583416554</v>
+        <v>0.05050954689092069</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02086726957053209</v>
+        <v>0.02075527168667128</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04139877738334921</v>
+        <v>0.04100742782939816</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0520250450523177</v>
+        <v>0.04858622143557508</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05447808131114316</v>
+        <v>0.05433627704530687</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06392071582024147</v>
+        <v>0.06247218057360845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08647536546427598</v>
+        <v>0.08570257445631298</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05168767195007359</v>
+        <v>0.04984553673016397</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06586210115103665</v>
+        <v>0.06621037896462652</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
         <v>0.05061491129271722</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.08984113736797675</v>
+        <v>0.08984113736797676</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03863103697458815</v>
+        <v>0.03864543730584946</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06989497205112116</v>
+        <v>0.06974268496579876</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04757200716565334</v>
+        <v>0.04718654689299749</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09123318822905967</v>
+        <v>0.09077431114984584</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04512500734962572</v>
+        <v>0.04547872532519533</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08370663893180499</v>
+        <v>0.08391791950242071</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0536402934647028</v>
+        <v>0.05350592578684288</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08964592226589606</v>
+        <v>0.0901020470619205</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0640300380394426</v>
+        <v>0.06377454952084659</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1078936863307551</v>
+        <v>0.1082149185606959</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05659059825878934</v>
+        <v>0.05607738517900533</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09642219314618809</v>
+        <v>0.09680929483629289</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13559</v>
+        <v>14133</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11196</v>
+        <v>11459</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11617</v>
+        <v>11489</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8733</v>
+        <v>8882</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>29190</v>
+        <v>29833</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25983</v>
+        <v>25388</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32942</v>
+        <v>34480</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>43474</v>
+        <v>42707</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28986</v>
+        <v>28716</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33485</v>
+        <v>33864</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>54087</v>
+        <v>56115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64775</v>
+        <v>64226</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17915</v>
+        <v>17544</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23366</v>
+        <v>21804</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28378</v>
+        <v>29973</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35601</v>
+        <v>34907</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51307</v>
+        <v>51296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>63705</v>
+        <v>65345</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37699</v>
+        <v>38962</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52082</v>
+        <v>52062</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52731</v>
+        <v>55359</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>63525</v>
+        <v>65040</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84654</v>
+        <v>83831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>105588</v>
+        <v>106186</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28143</v>
+        <v>28110</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>54059</v>
+        <v>54215</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20396</v>
+        <v>20464</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50303</v>
+        <v>50519</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>53020</v>
+        <v>53949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>113787</v>
+        <v>112703</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54219</v>
+        <v>54038</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>87669</v>
+        <v>86868</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44018</v>
+        <v>43511</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>76012</v>
+        <v>74774</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>87261</v>
+        <v>89177</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>154534</v>
+        <v>154254</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20956</v>
+        <v>20921</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>57620</v>
+        <v>58166</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24776</v>
+        <v>25278</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>70143</v>
+        <v>71830</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49174</v>
+        <v>49425</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>136946</v>
+        <v>135647</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>46651</v>
+        <v>44830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90571</v>
+        <v>91887</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48267</v>
+        <v>47792</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>97868</v>
+        <v>98450</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>84996</v>
+        <v>83787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>180667</v>
+        <v>180280</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13876</v>
+        <v>13739</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>35070</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21339</v>
+        <v>20779</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>67421</v>
+        <v>66962</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>39423</v>
+        <v>39802</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>107259</v>
+        <v>108834</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32562</v>
+        <v>33097</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59100</v>
+        <v>60055</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46518</v>
+        <v>46085</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>93299</v>
+        <v>91126</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>69694</v>
+        <v>70678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>143992</v>
+        <v>143858</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2866</v>
+        <v>2967</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18684</v>
+        <v>18235</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16502</v>
+        <v>17384</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>38621</v>
+        <v>38644</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23489</v>
+        <v>22096</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>60810</v>
+        <v>61658</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13000</v>
+        <v>13290</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36230</v>
+        <v>34855</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37962</v>
+        <v>39381</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>57330</v>
+        <v>57617</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>47700</v>
+        <v>46709</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>86624</v>
+        <v>86440</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3272</v>
+        <v>3262</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5545</v>
+        <v>5419</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7639</v>
+        <v>8500</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23465</v>
+        <v>23437</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13713</v>
+        <v>13640</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>32051</v>
+        <v>31748</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13370</v>
+        <v>12487</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16899</v>
+        <v>16855</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>25579</v>
+        <v>24999</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>40126</v>
+        <v>39767</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>33967</v>
+        <v>32757</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>50991</v>
+        <v>51261</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>131127</v>
+        <v>131176</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>246922</v>
+        <v>246384</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>168621</v>
+        <v>167255</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>340613</v>
+        <v>338900</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>313118</v>
+        <v>315572</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>608229</v>
+        <v>609764</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>182074</v>
+        <v>181618</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>316698</v>
+        <v>318309</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>226957</v>
+        <v>226052</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>402814</v>
+        <v>404013</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>392676</v>
+        <v>389115</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>700622</v>
+        <v>703435</v>
       </c>
     </row>
     <row r="36">
